--- a/opportunities.xlsx
+++ b/opportunities.xlsx
@@ -22,9 +22,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>NAICS Code</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Beijing</t>
+  </si>
+  <si>
+    <t>NAICS_Code</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,81 +464,81 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>541330</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>541611</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>541330</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>541512</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
